--- a/imageCreationExcel/back/108/108_0.xlsx
+++ b/imageCreationExcel/back/108/108_0.xlsx
@@ -486,39 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>27.56657944003891</v>
+        <v>0.9060023303436116</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8941363825758428</v>
+        <v>0.9959771648203819</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.3599090858637889</v>
+        <v>12.86496689742938</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_1_brightness27.567_contrast0.894_sharpness0.36.jpg</t>
+          <t>1_0_contrast0.906_sharpness0.996_equalization12.865.jpg</t>
         </is>
       </c>
     </row>
@@ -528,16 +528,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7.3603075151256</v>
+        <v>0.9881569679039494</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,22 +545,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9564698163010339</v>
+        <v>0.7708350324884308</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.3828921005117999</v>
+        <v>9.526527494342005</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_P_brightness7.36_gamma0.956_sharpness0.383.jpg</t>
+          <t>2_B_contrast0.988_gamma0.771_equalization9.527.jpg</t>
         </is>
       </c>
     </row>
@@ -570,16 +570,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8785096309451287</v>
+        <v>0.9027122010476973</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.7802711513567866</v>
+        <v>0.1616330368883065</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>12.65980705456562</v>
+        <v>22.56401186636847</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_2_contrast0.879_sharpness0.78_equalization12.66.jpg</t>
+          <t>3_1_gamma0.903_sharpness0.162_equalization22.564.jpg</t>
         </is>
       </c>
     </row>
@@ -612,24 +612,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8971404094713</v>
+        <v>0.5191202126078198</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.7263926200205998</v>
+        <v>0.03952329038348931</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9.766372352002007</v>
+        <v>31.26992688845184</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_2_contrast0.897_gamma0.726_equalization9.766.jpg</t>
+          <t>4_0_gamma0.519_sharpness0.04_equalization31.27.jpg</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,30 +663,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>21.50129414129778</v>
+        <v>29.15355396535391</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.8528846672479001</v>
+        <v>0.9303469768536105</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.5451099885765102</v>
+        <v>0.3792024157461428</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_8_brightness21.501_contrast0.853_gamma0.545.jpg</t>
+          <t>5_2_brightness29.154_gamma0.93_sharpness0.379.jpg</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.924617910563888</v>
+        <v>1.163602244986014</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.5527142449142632</v>
+        <v>0.6962863905241063</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>31.37224679219669</v>
+        <v>0.1358149351582951</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_8_contrast0.925_gamma0.553_equalization31.372.jpg</t>
+          <t>6_T_contrast1.164_gamma0.696_sharpness0.136.jpg</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8.258370882191755</v>
+        <v>20.87933974517784</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8412872438238979</v>
+        <v>1.005682656675614</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -763,14 +763,14 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.085911509092658</v>
+        <v>0.6067654175090776</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_7_brightness8.258_contrast0.841_gamma1.086.jpg</t>
+          <t>7_T_brightness20.879_contrast1.006_gamma0.607.jpg</t>
         </is>
       </c>
     </row>
@@ -780,24 +780,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8624438608538076</v>
+        <v>7.613516408480502</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.8706663892297116</v>
+        <v>0.8769449877065896</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.8267222114816046</v>
+        <v>0.6550719963275071</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_7_contrast0.862_gamma0.871_sharpness0.827.jpg</t>
+          <t>8_T_brightness7.614_contrast0.877_sharpness0.655.jpg</t>
         </is>
       </c>
     </row>
@@ -822,24 +822,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.039293505845784</v>
+        <v>1.012982752992638</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.1400766163090293</v>
+        <v>0.8647328190473533</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5.600840620639649</v>
+        <v>18.15797801297723</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_1_gamma1.039_sharpness0.14_equalization5.601.jpg</t>
+          <t>9_I_contrast1.013_gamma0.865_equalization18.158.jpg</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -873,15 +873,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12.30214573763968</v>
+        <v>23.99664791356519</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.10662073990451</v>
+        <v>1.095389610208169</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.01460171319172134</v>
+        <v>0.4185425704693322</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_7_brightness12.302_contrast1.107_sharpness0.015.jpg</t>
+          <t>10_S_brightness23.997_gamma1.095_sharpness0.419.jpg</t>
         </is>
       </c>
     </row>
@@ -906,16 +906,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.065891142010637</v>
+        <v>2.045971599092971</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,22 +923,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.7096451209580111</v>
+        <v>0.7433051574081524</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>12.88848154535563</v>
+        <v>0.6770834601504798</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_E_contrast1.066_gamma0.71_equalization12.888.jpg</t>
+          <t>11_I_brightness2.046_gamma0.743_sharpness0.677.jpg</t>
         </is>
       </c>
     </row>
@@ -948,16 +948,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>29.72645582323</v>
+        <v>0.8259123059967061</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.029789131300737</v>
+        <v>0.5170041600647183</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -973,14 +973,14 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.6697358114670764</v>
+        <v>0.6790936729424888</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_P_brightness29.726_gamma1.03_sharpness0.67.jpg</t>
+          <t>12_B_contrast0.826_gamma0.517_sharpness0.679.jpg</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -999,15 +999,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.197256988171893</v>
+        <v>0.8734599782724343</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9899501878831474</v>
+        <v>0.989171155174887</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>12.61997412405223</v>
+        <v>10.07816835941084</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_E_contrast1.197_gamma0.99_equalization12.62.jpg</t>
+          <t>13_S_contrast0.873_sharpness0.989_equalization10.078.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,16 +1032,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8866329360701595</v>
+        <v>0.9151665079889288</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.7818602777347395</v>
+        <v>0.6984637181716711</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>29.31621998607624</v>
+        <v>28.5957167688258</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_1_gamma0.887_sharpness0.782_equalization29.316.jpg</t>
+          <t>14_B_contrast0.915_sharpness0.698_equalization28.596.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9245069827940525</v>
+        <v>0.9682506601743912</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.033273226996942</v>
+        <v>1.178112910770299</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10.30259114456166</v>
+        <v>0.4233859431085862</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_I_contrast0.925_gamma1.033_equalization10.303.jpg</t>
+          <t>15_P_brightness0.968_contrast1.178_sharpness0.423.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8566847305794293</v>
+        <v>0.6563680450057481</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.8487077238593739</v>
+        <v>0.8092277159378037</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.889943185648955</v>
+        <v>21.32137440555741</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_1_contrast0.857_gamma0.849_sharpness0.89.jpg</t>
+          <t>16_B_gamma0.656_sharpness0.809_equalization21.321.jpg</t>
         </is>
       </c>
     </row>
@@ -1163,34 +1163,34 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5.966305048544488</v>
+        <v>0.5072814637290272</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.835759685381652</v>
+        <v>0.7753646855384346</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.1882812961730131</v>
+        <v>13.33093093068447</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_I_brightness5.966_contrast0.836_sharpness0.188.jpg</t>
+          <t>17_I_gamma0.507_sharpness0.775_equalization13.331.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1209,30 +1209,30 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>17.76964354738143</v>
+        <v>27.14703020281975</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.022023926169882</v>
+        <v>1.148011838713697</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.622889191424105</v>
+        <v>0.9442691002194641</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_2_brightness17.77_gamma1.022_sharpness0.623.jpg</t>
+          <t>18_8_brightness27.147_contrast1.148_gamma0.944.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.5141063319652227</v>
+        <v>21.26775608129217</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9925077465783625</v>
+        <v>0.9960385347353576</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6.134761819442272</v>
+        <v>0.8505600364741098</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_B_gamma0.514_sharpness0.993_equalization6.135.jpg</t>
+          <t>19_8_brightness21.268_contrast0.996_gamma0.851.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.085576468856012</v>
+        <v>1.127480825363714</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.006190179970642</v>
+        <v>0.5633919010568861</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.4197907142161179</v>
+        <v>0.1844741671266631</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_8_contrast1.086_gamma1.006_sharpness0.42.jpg</t>
+          <t>20_P_contrast1.127_gamma0.563_sharpness0.184.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>22.09604244665756</v>
+        <v>1.115600440395795</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9393521040433274</v>
+        <v>0.9801710650621588</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.7426407509927653</v>
+        <v>30.49837434931737</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_0_brightness22.096_contrast0.939_gamma0.743.jpg</t>
+          <t>21_1_contrast1.116_gamma0.98_equalization30.498.jpg</t>
         </is>
       </c>
     </row>
@@ -1373,11 +1373,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.8143413526312158</v>
+        <v>15.44387057376222</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.6279309968353883</v>
+        <v>0.9939494627257164</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.4877672149061428</v>
+        <v>0.3479538069365695</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_P_contrast0.814_gamma0.628_sharpness0.488.jpg</t>
+          <t>22_P_brightness15.444_gamma0.994_sharpness0.348.jpg</t>
         </is>
       </c>
     </row>
@@ -1415,11 +1415,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.080645530129687</v>
+        <v>2.077773763589696</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9050728303634532</v>
+        <v>0.7295668655142443</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.0311701836779272</v>
+        <v>0.9256083265343976</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_E_contrast1.081_gamma0.905_sharpness0.031.jpg</t>
+          <t>23_E_brightness2.078_gamma0.73_sharpness0.926.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.184899859017384</v>
+        <v>16.63241207992569</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.1903610512866169</v>
+        <v>1.017025321273729</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>12.42846682473178</v>
+        <v>0.3409316341840563</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_9_contrast1.185_sharpness0.19_equalization12.428.jpg</t>
+          <t>24_S_brightness16.632_gamma1.017_sharpness0.341.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8297673309934525</v>
+        <v>0.9458432636591545</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.7695076243058288</v>
+        <v>0.6378129472057472</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>12.31054973534548</v>
+        <v>29.31508158512345</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_E_contrast0.83_gamma0.77_equalization12.311.jpg</t>
+          <t>25_S_contrast0.946_gamma0.638_equalization29.315.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>26.68300089111485</v>
+        <v>0.9747200443720383</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.9546650363622484</v>
+        <v>1.026502030751112</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.6778138746449222</v>
+        <v>0.7809331589763853</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_7_brightness26.683_contrast0.955_gamma0.678.jpg</t>
+          <t>26_P_brightness0.975_contrast1.027_gamma0.781.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,16 +1578,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>21.19064988404373</v>
+        <v>0.9443727306954307</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.074214339677608</v>
+        <v>1.081159086917255</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.3918029684588253</v>
+        <v>26.18758920213446</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_C_brightness21.191_gamma1.074_sharpness0.392.jpg</t>
+          <t>27_9_contrast0.944_gamma1.081_equalization26.188.jpg</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.9166951039385643</v>
+        <v>1.112308502949617</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1637,22 +1637,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.8197120041591945</v>
+        <v>0.7438009763569717</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.7842900610291516</v>
+        <v>7.50950713487841</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_B_contrast0.917_gamma0.82_sharpness0.784.jpg</t>
+          <t>28_B_contrast1.112_gamma0.744_equalization7.51.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1671,15 +1671,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.136925061937537</v>
+        <v>0.9425104083782067</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.1834696774019996</v>
+        <v>1.027587696484242</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>17.89095490570757</v>
+        <v>31.3385365434764</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_9_contrast1.137_sharpness0.183_equalization17.891.jpg</t>
+          <t>29_T_contrast0.943_gamma1.028_equalization31.339.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1713,30 +1713,30 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.8617732905095683</v>
+        <v>1.05576101839628</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.5333668298509969</v>
+        <v>0.06867415212918317</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.9838175072642406</v>
+        <v>18.28835644212566</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_B_contrast0.862_gamma0.533_sharpness0.984.jpg</t>
+          <t>30_2_contrast1.056_sharpness0.069_equalization18.288.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.8506191267831571</v>
+        <v>0.5207708432690779</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.5972000471244385</v>
+        <v>0.6664128328223363</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.4068937140187408</v>
+        <v>12.42553378344613</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_0_contrast0.851_gamma0.597_sharpness0.407.jpg</t>
+          <t>31_9_gamma0.521_sharpness0.666_equalization12.426.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>20.26491202215274</v>
+        <v>20.62172959907387</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.046135946747779</v>
+        <v>1.142520270634825</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.576797409647588</v>
+        <v>1.087966140447181</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_I_brightness20.265_contrast1.046_gamma0.577.jpg</t>
+          <t>32_0_brightness20.622_contrast1.143_gamma1.088.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,30 +1839,30 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>12.10557972269709</v>
+        <v>6.001866685461911</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9499516796611509</v>
+        <v>1.02920465479197</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.4812460591232171</v>
+        <v>0.9036885436967008</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_9_brightness12.106_gamma0.95_sharpness0.481.jpg</t>
+          <t>33_T_brightness6.002_contrast1.029_gamma0.904.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,16 +1872,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.856790592176669</v>
+        <v>29.33586148493069</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9987472606922032</v>
+        <v>0.5090367260364544</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.695224702881522</v>
+        <v>0.7904561509482109</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_I_contrast0.857_gamma0.999_sharpness0.695.jpg</t>
+          <t>34_8_brightness29.336_gamma0.509_sharpness0.79.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.006404308665472</v>
+        <v>1.215001334469895</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.3833828092325759</v>
+        <v>0.9746393933225789</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>9.332962646703631</v>
+        <v>0.6648976075505453</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_P_gamma1.006_sharpness0.383_equalization9.333.jpg</t>
+          <t>35_3_brightness1.215_gamma0.975_sharpness0.665.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.902261180620729</v>
+        <v>0.8325726023481397</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.5409269459327666</v>
+        <v>0.8945866998919263</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.5159405988953127</v>
+        <v>0.5646263836566279</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_7_contrast0.902_gamma0.541_sharpness0.516.jpg</t>
+          <t>36_I_contrast0.833_gamma0.895_sharpness0.565.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.9231612736091729</v>
+        <v>2.829217752242247</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.7176949118055951</v>
+        <v>1.1106649743016</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>30.73716469978223</v>
+        <v>0.3637901375261024</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_8_contrast0.923_gamma0.718_equalization30.737.jpg</t>
+          <t>37_B_brightness2.829_contrast1.111_sharpness0.364.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2049,30 +2049,30 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.092999916106211</v>
+        <v>1.13103633977719</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.2983430098966631</v>
+        <v>0.6499665691096604</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>28.50561649581288</v>
+        <v>0.1131622759282958</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_B_contrast1.093_sharpness0.298_equalization28.506.jpg</t>
+          <t>38_I_contrast1.131_gamma0.65_sharpness0.113.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>17.61391287520441</v>
+        <v>19.08162541668332</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.6393083885184253</v>
+        <v>1.081291246902681</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.0761272806420113</v>
+        <v>0.7718150933108</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_S_brightness17.614_gamma0.639_sharpness0.076.jpg</t>
+          <t>39_E_brightness19.082_gamma1.081_sharpness0.772.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.017055154963886</v>
+        <v>4.465182014879138</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.6912197993377216</v>
+        <v>1.164413575674873</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>29.03188517992412</v>
+        <v>0.6783604424355583</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_0_contrast1.017_gamma0.691_equalization29.032.jpg</t>
+          <t>40_T_brightness4.465_contrast1.164_gamma0.678.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,39 +2166,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>18.84109514141513</v>
+        <v>1.039710201775966</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.7207794688750012</v>
+        <v>0.5490628926038894</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.8169764656210181</v>
+        <v>20.65677950003711</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_P_brightness18.841_gamma0.721_sharpness0.817.jpg</t>
+          <t>41_3_contrast1.04_sharpness0.549_equalization20.657.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.8016376730334535</v>
+        <v>1.155953566092978</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.7687583734480771</v>
+        <v>0.7815471633363293</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>18.51944012326114</v>
+        <v>0.8586627577546376</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_T_gamma0.802_sharpness0.769_equalization18.519.jpg</t>
+          <t>42_0_contrast1.156_gamma0.782_sharpness0.859.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>27.10122686911491</v>
+        <v>0.8057493575440253</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.155929306338035</v>
+        <v>0.8398473020084372</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.9481912016070643</v>
+        <v>4.544085514936873</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_0_brightness27.101_contrast1.156_gamma0.948.jpg</t>
+          <t>43_E_contrast0.806_sharpness0.84_equalization4.544.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2301,15 +2301,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>25.52191438960812</v>
+        <v>26.03455896645702</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.8523867052799802</v>
+        <v>0.7197758794355307</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.6125410176866316</v>
+        <v>0.3613471092985508</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_2_brightness25.522_contrast0.852_sharpness0.613.jpg</t>
+          <t>44_I_brightness26.035_gamma0.72_sharpness0.361.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>16.60978800668004</v>
+        <v>10.57434651153213</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2351,22 +2351,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.8263314441588094</v>
+        <v>0.8517906122748798</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.6729093256129736</v>
+        <v>0.5411938397658345</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_9_brightness16.61_contrast0.826_sharpness0.673.jpg</t>
+          <t>45_C_brightness10.574_contrast0.852_gamma0.541.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2385,30 +2385,30 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.8176029026531908</v>
+        <v>0.8414098856396797</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.8262326943667422</v>
+        <v>0.6862415200595779</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.624256251517131</v>
+        <v>11.83982039003563</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_0_contrast0.818_gamma0.826_sharpness0.624.jpg</t>
+          <t>46_7_contrast0.841_sharpness0.686_equalization11.84.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,24 +2418,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.5561296093691858</v>
+        <v>1.107071155212227</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.5917003343803382</v>
+        <v>0.8004053318919482</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>20.54673088064666</v>
+        <v>6.346057704912416</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_2_gamma0.556_sharpness0.592_equalization20.547.jpg</t>
+          <t>47_P_contrast1.107_gamma0.8_equalization6.346.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>26.57410185355207</v>
+        <v>16.45993605655009</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.9933457768015355</v>
+        <v>0.903898650093319</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.002028267303827646</v>
+        <v>0.7700208687624868</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_P_brightness26.574_contrast0.993_sharpness0.002.jpg</t>
+          <t>48_C_brightness16.46_contrast0.904_sharpness0.77.jpg</t>
         </is>
       </c>
     </row>
